--- a/calibration_factors/BluedDrop_Cone_Values.xlsx
+++ b/calibration_factors/BluedDrop_Cone_Values.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geotech_Research\Field_Analysis\BlueDrop_Analysis_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geotech_Research\Field_Analysis\BlueDrop_Analysis_Lib\calibration_factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF7677-F1B8-45EC-8F4C-D38AFF279093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A2C33-D37C-47C9-BD9F-796FE05E30C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{22986947-C765-4FFB-B44F-FC3407CF901C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="18">
   <si>
     <t>Properties</t>
   </si>
@@ -151,14 +151,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +497,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -506,74 +506,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -598,12 +598,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
@@ -688,11 +688,11 @@
       <c r="C5" s="2">
         <v>0.22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,14 +702,14 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="2">
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>2.4184000000000001</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -719,13 +719,13 @@
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
     </row>
@@ -829,11 +829,11 @@
       <c r="C5" s="2">
         <v>0.22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -843,14 +843,14 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="2">
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>2.4184000000000001</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -860,13 +860,13 @@
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -970,11 +970,11 @@
       <c r="C5" s="2">
         <v>0.22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -984,14 +984,14 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="2">
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>2.4184000000000001</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,13 +1001,13 @@
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:E7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1111,11 +1111,11 @@
       <c r="C5" s="2">
         <v>0.22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1125,14 +1125,14 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="2">
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>2.4184000000000001</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1142,13 +1142,13 @@
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2.4729999999999999E-3</v>
       </c>
     </row>

--- a/calibration_factors/BluedDrop_Cone_Values.xlsx
+++ b/calibration_factors/BluedDrop_Cone_Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geotech_Research\Field_Analysis\BlueDrop_Analysis_Lib\calibration_factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.adusei\BlueDrop_Analysis_Lib\calibration_factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A2C33-D37C-47C9-BD9F-796FE05E30C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14E5553-2054-4891-82F8-FEE7C2FA3D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{22986947-C765-4FFB-B44F-FC3407CF901C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{22986947-C765-4FFB-B44F-FC3407CF901C}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -500,12 +500,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -541,7 +541,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -558,7 +558,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -575,12 +575,12 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -597,19 +597,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405D5BCC-D9EC-4E33-AD5D-A883D771FC13}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -643,7 +643,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -661,7 +661,7 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -678,7 +678,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -739,18 +739,18 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -784,7 +784,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -802,7 +802,7 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -819,7 +819,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -880,18 +880,18 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -925,7 +925,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -943,7 +943,7 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1020,19 +1020,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E39CA-566B-4287-B3CF-3BF7E14B5B69}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.69921875" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
